--- a/target/classes/testdata/AccountCreation.xlsx
+++ b/target/classes/testdata/AccountCreation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6180" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14505" windowHeight="6180" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="accountcreation" sheetId="3" r:id="rId1"/>
@@ -12,9 +12,10 @@
     <sheet name="accountOffer" sheetId="7" r:id="rId3"/>
     <sheet name="accountLead" sheetId="6" r:id="rId4"/>
     <sheet name="appointment" sheetId="8" r:id="rId5"/>
+    <sheet name="leadcreation" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J18"/>
+  <oleSize ref="I1:P18"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
   <si>
     <t>Name</t>
   </si>
@@ -56,121 +57,214 @@
     <t>test</t>
   </si>
   <si>
-    <t>accounts</t>
-  </si>
-  <si>
     <t>tests</t>
   </si>
   <si>
+    <t>Territory</t>
+  </si>
+  <si>
+    <t>AlternateBranch004: Mumbai</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>CustomerID</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>AlternateMobile</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Subproduct</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Axis Direct</t>
+  </si>
+  <si>
+    <t>testlead</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>4-In-1</t>
+  </si>
+  <si>
+    <t>SubProduct</t>
+  </si>
+  <si>
+    <t>03.Priority</t>
+  </si>
+  <si>
+    <t>testoffer</t>
+  </si>
+  <si>
+    <t>TypeOfCustomer</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>appointmentcreation</t>
+  </si>
+  <si>
+    <t>ShortName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>DateofBirth</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>LeadDescription</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>27/04/2022</t>
+  </si>
+  <si>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Andheri,Chakala</t>
+  </si>
+  <si>
+    <t>lead creation</t>
+  </si>
+  <si>
+    <t>Activation</t>
+  </si>
+  <si>
     <t>Walk-In</t>
   </si>
   <si>
-    <t>Territory</t>
-  </si>
-  <si>
-    <t>AlternateBranch004: Mumbai</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>CustomerID</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>AlternateMobile</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Subproduct</t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Axis Direct</t>
-  </si>
-  <si>
-    <t>testlead</t>
-  </si>
-  <si>
-    <t>CustomerName</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>4-In-1</t>
-  </si>
-  <si>
-    <t>SubProduct</t>
-  </si>
-  <si>
-    <t>03.Priority</t>
-  </si>
-  <si>
-    <t>testoffer</t>
-  </si>
-  <si>
-    <t>TypeOfCustomer</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>appointmentcreation</t>
-  </si>
-  <si>
-    <t>appointment429</t>
-  </si>
-  <si>
-    <t>ShortName</t>
-  </si>
-  <si>
-    <t>account962</t>
-  </si>
-  <si>
-    <t>9729462994</t>
-  </si>
-  <si>
-    <t>784589239</t>
-  </si>
-  <si>
-    <t>appointment719</t>
-  </si>
-  <si>
-    <t>appointment366</t>
-  </si>
-  <si>
-    <t>appointment727</t>
-  </si>
-  <si>
-    <t>appointment378</t>
-  </si>
-  <si>
-    <t>appointment855</t>
-  </si>
-  <si>
-    <t>appointment240</t>
+    <t>Subsource</t>
+  </si>
+  <si>
+    <t>AXIS Dept</t>
+  </si>
+  <si>
+    <t>lead4</t>
+  </si>
+  <si>
+    <t>9000000984</t>
+  </si>
+  <si>
+    <t>test40@gmail.com</t>
+  </si>
+  <si>
+    <t>ASDUY8886Z</t>
+  </si>
+  <si>
+    <t>appointment595</t>
+  </si>
+  <si>
+    <t>account277</t>
+  </si>
+  <si>
+    <t>9000002828</t>
+  </si>
+  <si>
+    <t>000005795</t>
+  </si>
+  <si>
+    <t>abcgmail.com</t>
+  </si>
+  <si>
+    <t>ASDFH23</t>
+  </si>
+  <si>
+    <t>324234</t>
+  </si>
+  <si>
+    <t>lead857</t>
+  </si>
+  <si>
+    <t>lead419</t>
+  </si>
+  <si>
+    <t>lead15</t>
+  </si>
+  <si>
+    <t>lead109</t>
+  </si>
+  <si>
+    <t>lead807</t>
+  </si>
+  <si>
+    <t>lead181</t>
+  </si>
+  <si>
+    <t>9000000946</t>
+  </si>
+  <si>
+    <t>test904@gmail.com</t>
+  </si>
+  <si>
+    <t>ASDUY5655Z</t>
+  </si>
+  <si>
+    <t>appointment976</t>
+  </si>
+  <si>
+    <t>account677</t>
+  </si>
+  <si>
+    <t>9000003953</t>
+  </si>
+  <si>
+    <t>000008479</t>
+  </si>
+  <si>
+    <t>account392</t>
+  </si>
+  <si>
+    <t>9000007162</t>
+  </si>
+  <si>
+    <t>000000749</t>
   </si>
 </sst>
 </file>
@@ -209,12 +303,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -230,11 +330,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -519,7 +622,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,36 +637,36 @@
     <col min="10" max="10" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
+      <c r="J1" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -571,66 +674,44 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
+      <c r="D3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -639,7 +720,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,20 +728,20 @@
     <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -673,7 +754,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,20 +763,20 @@
     <col min="2" max="2" customWidth="true" width="18.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +789,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,24 +802,24 @@
     <col min="6" max="6" customWidth="true" width="15.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -746,19 +827,19 @@
         <v>9876543211</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -770,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,29 +863,187 @@
     <col min="4" max="4" customWidth="true" width="17.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="6" width="14.5703125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="6" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="6" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" style="6" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="6" width="18.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="6" width="17.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="6" width="14.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="6" width="16.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="6" width="12.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="14.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="6" width="27.28515625" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" style="6" width="15.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="6" width="21.28515625" collapsed="true"/>
+    <col min="16" max="16384" style="6" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3">
+        <v>23535</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/target/classes/testdata/AccountCreation.xlsx
+++ b/target/classes/testdata/AccountCreation.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14505" windowHeight="6180" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14550" windowHeight="6180"/>
   </bookViews>
   <sheets>
-    <sheet name="accountcreation" sheetId="3" r:id="rId1"/>
-    <sheet name="accountoutput" sheetId="5" r:id="rId2"/>
-    <sheet name="accountOffer" sheetId="7" r:id="rId3"/>
-    <sheet name="accountLead" sheetId="6" r:id="rId4"/>
-    <sheet name="appointment" sheetId="8" r:id="rId5"/>
-    <sheet name="leadcreation" sheetId="9" r:id="rId6"/>
+    <sheet name="testsuite" sheetId="12" r:id="rId1"/>
+    <sheet name="accountcreation" sheetId="3" r:id="rId2"/>
+    <sheet name="accountoutput" sheetId="5" r:id="rId3"/>
+    <sheet name="accountOffer" sheetId="7" r:id="rId4"/>
+    <sheet name="accountLead" sheetId="6" r:id="rId5"/>
+    <sheet name="appointment" sheetId="8" r:id="rId6"/>
+    <sheet name="leadcreation" sheetId="9" r:id="rId7"/>
+    <sheet name="taskcreation" sheetId="10" r:id="rId8"/>
+    <sheet name="offercreation" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="I1:P18"/>
+  <oleSize ref="A1:I13"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="130">
   <si>
     <t>Name</t>
   </si>
@@ -45,15 +48,9 @@
     <t>NTB</t>
   </si>
   <si>
-    <t>abc@gmail.com</t>
-  </si>
-  <si>
     <t>Outbound Call</t>
   </si>
   <si>
-    <t>account</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
@@ -186,30 +183,6 @@
     <t>AXIS Dept</t>
   </si>
   <si>
-    <t>lead4</t>
-  </si>
-  <si>
-    <t>9000000984</t>
-  </si>
-  <si>
-    <t>test40@gmail.com</t>
-  </si>
-  <si>
-    <t>ASDUY8886Z</t>
-  </si>
-  <si>
-    <t>appointment595</t>
-  </si>
-  <si>
-    <t>account277</t>
-  </si>
-  <si>
-    <t>9000002828</t>
-  </si>
-  <si>
-    <t>000005795</t>
-  </si>
-  <si>
     <t>abcgmail.com</t>
   </si>
   <si>
@@ -219,52 +192,232 @@
     <t>324234</t>
   </si>
   <si>
-    <t>lead857</t>
-  </si>
-  <si>
-    <t>lead419</t>
-  </si>
-  <si>
-    <t>lead15</t>
-  </si>
-  <si>
-    <t>lead109</t>
-  </si>
-  <si>
     <t>lead807</t>
   </si>
   <si>
-    <t>lead181</t>
-  </si>
-  <si>
-    <t>9000000946</t>
-  </si>
-  <si>
-    <t>test904@gmail.com</t>
-  </si>
-  <si>
-    <t>ASDUY5655Z</t>
-  </si>
-  <si>
-    <t>appointment976</t>
-  </si>
-  <si>
-    <t>account677</t>
-  </si>
-  <si>
-    <t>9000003953</t>
-  </si>
-  <si>
-    <t>000008479</t>
-  </si>
-  <si>
-    <t>account392</t>
-  </si>
-  <si>
-    <t>9000007162</t>
-  </si>
-  <si>
-    <t>000000749</t>
+    <t>taskOnLead</t>
+  </si>
+  <si>
+    <t>taskcreation</t>
+  </si>
+  <si>
+    <t>LeadID</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>000005573</t>
+  </si>
+  <si>
+    <t>OfferDescription</t>
+  </si>
+  <si>
+    <t>OfferStatus</t>
+  </si>
+  <si>
+    <t>offersTermsAndConditions</t>
+  </si>
+  <si>
+    <t>account760</t>
+  </si>
+  <si>
+    <t>Interested</t>
+  </si>
+  <si>
+    <t>TC No</t>
+  </si>
+  <si>
+    <t>TC01</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>TC Name</t>
+  </si>
+  <si>
+    <t>TC01_ToverifyAccountIsCreatedTest</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>TC02_ToverifyLeadIsCreatedOnAccountTest</t>
+  </si>
+  <si>
+    <t>TC03_ToverifyActivityCreatedOnAccountTest</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>RunMode</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>TC04_ToverifyNewOfferCreatedOnAccountTest</t>
+  </si>
+  <si>
+    <t>TC05_ToverifyTabsVisibleOnAccountTest</t>
+  </si>
+  <si>
+    <t>TC06_CustomerSearchTest</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>TC08</t>
+  </si>
+  <si>
+    <t>TC09</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>TC07_ToverifyActivityCreatedIndependentlyTest</t>
+  </si>
+  <si>
+    <t>TC08_ToverifyCreatedActivityClosedTest</t>
+  </si>
+  <si>
+    <t>TC09_ToverifyCreatedActivityToBeEditedTest</t>
+  </si>
+  <si>
+    <t>TC10_ToVerifyNewLeadCreatedTest</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t>TC11_ToverifyAppointmentCreatedOnLeadTest</t>
+  </si>
+  <si>
+    <t>TC12_ToverifyDocumentAttachementOnLeadDetailsPageTest</t>
+  </si>
+  <si>
+    <t>TC13_ToverifyLeadHistoryPageTest</t>
+  </si>
+  <si>
+    <t>TC14</t>
+  </si>
+  <si>
+    <t>TC15</t>
+  </si>
+  <si>
+    <t>TC14_ToverifyTaskCreatedOnLeadTest</t>
+  </si>
+  <si>
+    <t>TC15_LeadSearchTest</t>
+  </si>
+  <si>
+    <t>TC16_ToverifyOfferCreationTest</t>
+  </si>
+  <si>
+    <t>TC16</t>
+  </si>
+  <si>
+    <t>000005236</t>
+  </si>
+  <si>
+    <t>lead728</t>
+  </si>
+  <si>
+    <t>9000009274</t>
+  </si>
+  <si>
+    <t>test859@gmail.com</t>
+  </si>
+  <si>
+    <t>CJJPS0224Z</t>
+  </si>
+  <si>
+    <t>422505038</t>
+  </si>
+  <si>
+    <t>appointment464</t>
+  </si>
+  <si>
+    <t>account528985947883152569740579</t>
+  </si>
+  <si>
+    <t>test437@gmail.com</t>
+  </si>
+  <si>
+    <t>9000009162</t>
+  </si>
+  <si>
+    <t>000006465</t>
+  </si>
+  <si>
+    <t>CJJPS5465Z</t>
+  </si>
+  <si>
+    <t>account528985947883152569740579295</t>
+  </si>
+  <si>
+    <t>test129@gmail.com</t>
+  </si>
+  <si>
+    <t>9000004755</t>
+  </si>
+  <si>
+    <t>000000503</t>
+  </si>
+  <si>
+    <t>CJJPS5316Z</t>
+  </si>
+  <si>
+    <t>appointment344</t>
+  </si>
+  <si>
+    <t>lead664</t>
+  </si>
+  <si>
+    <t>9000008348</t>
+  </si>
+  <si>
+    <t>test321@gmail.com</t>
+  </si>
+  <si>
+    <t>CJJPS2589Z</t>
+  </si>
+  <si>
+    <t>422505041</t>
+  </si>
+  <si>
+    <t>000009613</t>
+  </si>
+  <si>
+    <t>appointment363</t>
+  </si>
+  <si>
+    <t>account528985947883152569740579295650</t>
+  </si>
+  <si>
+    <t>test800@gmail.com</t>
+  </si>
+  <si>
+    <t>9000008200</t>
+  </si>
+  <si>
+    <t>000003312</t>
+  </si>
+  <si>
+    <t>CJJPS1126Z</t>
   </si>
 </sst>
 </file>
@@ -272,7 +425,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +455,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -317,7 +476,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -325,12 +484,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -338,6 +512,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -619,103 +800,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
       <c r="J2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="H3" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="K2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
+      <c r="G3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -730,18 +1129,18 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -749,12 +1148,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,33 +1162,41 @@
     <col min="2" max="2" customWidth="true" width="18.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,22 +1211,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -827,19 +1234,19 @@
         <v>9876543211</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -847,7 +1254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -865,24 +1272,24 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -890,12 +1297,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +1310,7 @@
     <col min="1" max="1" customWidth="true" style="6" width="14.5703125" collapsed="true"/>
     <col min="2" max="3" customWidth="true" style="6" width="10.85546875" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="6" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" style="6" width="9.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="11.0" collapsed="true"/>
     <col min="6" max="6" customWidth="true" style="6" width="18.7109375" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="6" width="17.5703125" collapsed="true"/>
     <col min="8" max="8" customWidth="true" style="6" width="14.85546875" collapsed="true"/>
@@ -918,16 +1325,16 @@
   <sheetData>
     <row r="1" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>3</v>
@@ -936,114 +1343,247 @@
         <v>2</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="J1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="L2" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="O2" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E3">
         <v>23535</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="29.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>